--- a/MyOwnString/HowToCalNext.xlsx
+++ b/MyOwnString/HowToCalNext.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4AB0B9-A756-44AD-96EE-AF885B77B8D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912F3EC8-E3D8-49D5-8BFC-B87DB571FE8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="2865" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="32">
-  <si>
-    <t>关于KMP算法中next[]如何计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>主串</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最后每个值 +1     就会得到这样一个序列:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>next</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若相等,则填入next数列中该序号对应的nextval中的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>比如这里</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,8 +187,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>以此类推,即得到了三个数列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就会得到这样一个序列:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若相等,则填入next数列中该序号+1对应的nextval中的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">这个位置的maxL和next数都为1,则看next数列对应的第一个位置0下面的nextval数,即0 </t>
+      <t xml:space="preserve">这个位置的maxL和next数都为0,则看next数列对应的第一个位置-1下面的nextval数,即0 </t>
     </r>
     <r>
       <rPr>
@@ -216,7 +216,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以此类推,即得到了三个数列</t>
+    <t>关于KMP算法中next[]如何计算(在实际算法中)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,83 +483,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,40 +849,40 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="A1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -890,37 +890,37 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="A4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -928,28 +928,28 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="4">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2">
         <v>7</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>8</v>
       </c>
       <c r="J5" s="1"/>
@@ -960,31 +960,31 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -993,17 +993,17 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1013,7 +1013,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1031,10 +1031,10 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1051,13 +1051,13 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1073,16 +1073,16 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1097,19 +1097,19 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1123,22 +1123,22 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1151,25 +1151,25 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1180,34 +1180,34 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1215,17 +1215,17 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1234,20 +1234,20 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>7</v>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1259,17 +1259,17 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="A18" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1278,44 +1278,44 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>7</v>
+      <c r="B19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="H19" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="A20" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1323,17 +1323,17 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="A21" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1341,11 +1341,11 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
+      <c r="A22" s="8">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1361,14 +1361,14 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1383,17 +1383,17 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="A24" s="8">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1403,20 +1403,20 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="A25" s="8">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1425,23 +1425,23 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1449,201 +1449,201 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+      <c r="A28" s="8">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
-        <v>0</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="A29" s="9">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="H29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="B33" s="10">
+        <v>-1</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
+        <v>2</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="14">
-        <v>0</v>
-      </c>
-      <c r="C33" s="14">
-        <v>1</v>
-      </c>
-      <c r="D33" s="14">
-        <v>1</v>
-      </c>
-      <c r="E33" s="14">
-        <v>2</v>
-      </c>
-      <c r="F33" s="14">
-        <v>2</v>
-      </c>
-      <c r="G33" s="14">
-        <v>3</v>
-      </c>
-      <c r="H33" s="14">
-        <v>1</v>
-      </c>
-      <c r="I33" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="16">
+      <c r="B37" s="12">
         <v>0</v>
       </c>
       <c r="C37" s="1"/>
@@ -1655,252 +1655,267 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="12">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12">
+        <v>2</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="16">
-        <v>0</v>
-      </c>
-      <c r="C39" s="16">
-        <v>1</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="16">
+      <c r="B41" s="18">
+        <v>0</v>
+      </c>
+      <c r="C41" s="16">
+        <v>0</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1</v>
+      </c>
+      <c r="E41" s="16">
+        <v>1</v>
+      </c>
+      <c r="F41" s="16">
         <v>2</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="16">
-        <v>3</v>
-      </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="16">
+      <c r="G41" s="16">
+        <v>0</v>
+      </c>
+      <c r="H41" s="16">
+        <v>1</v>
+      </c>
+      <c r="I41" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="19">
+        <v>-1</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="22">
-        <v>0</v>
-      </c>
-      <c r="C41" s="20">
-        <v>0</v>
-      </c>
-      <c r="D41" s="20">
-        <v>1</v>
-      </c>
-      <c r="E41" s="20">
-        <v>1</v>
-      </c>
-      <c r="F41" s="20">
+      <c r="B43" s="20">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="12">
+        <v>1</v>
+      </c>
+      <c r="G43" s="12">
         <v>2</v>
       </c>
-      <c r="G41" s="20">
-        <v>0</v>
-      </c>
-      <c r="H41" s="20">
-        <v>1</v>
-      </c>
-      <c r="I41" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="23">
-        <v>0</v>
-      </c>
-      <c r="C42" s="14">
-        <v>1</v>
-      </c>
-      <c r="D42" s="14">
-        <v>1</v>
-      </c>
-      <c r="E42" s="14">
+      <c r="H43" s="12">
+        <v>0</v>
+      </c>
+      <c r="I43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="22">
+        <v>0</v>
+      </c>
+      <c r="C46" s="22">
+        <v>0</v>
+      </c>
+      <c r="D46" s="22">
+        <v>1</v>
+      </c>
+      <c r="E46" s="22">
+        <v>1</v>
+      </c>
+      <c r="F46" s="22">
         <v>2</v>
       </c>
-      <c r="F42" s="14">
+      <c r="G46" s="22">
+        <v>0</v>
+      </c>
+      <c r="H46" s="22">
+        <v>1</v>
+      </c>
+      <c r="I46" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="C47" s="23">
+        <v>0</v>
+      </c>
+      <c r="D47" s="23">
+        <v>0</v>
+      </c>
+      <c r="E47" s="23">
+        <v>1</v>
+      </c>
+      <c r="F47" s="23">
+        <v>1</v>
+      </c>
+      <c r="G47" s="23">
         <v>2</v>
       </c>
-      <c r="G42" s="14">
-        <v>3</v>
-      </c>
-      <c r="H42" s="14">
-        <v>1</v>
-      </c>
-      <c r="I42" s="14">
+      <c r="H47" s="23">
+        <v>0</v>
+      </c>
+      <c r="I47" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="21">
+        <v>0</v>
+      </c>
+      <c r="C48" s="21">
+        <v>0</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0</v>
+      </c>
+      <c r="E48" s="21">
+        <v>0</v>
+      </c>
+      <c r="F48" s="21">
+        <v>1</v>
+      </c>
+      <c r="G48" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="24">
-        <v>0</v>
-      </c>
-      <c r="C43" s="16">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="16">
-        <v>2</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="16">
-        <v>3</v>
-      </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="26">
-        <v>0</v>
-      </c>
-      <c r="C46" s="26">
-        <v>0</v>
-      </c>
-      <c r="D46" s="26">
-        <v>1</v>
-      </c>
-      <c r="E46" s="26">
-        <v>1</v>
-      </c>
-      <c r="F46" s="26">
-        <v>2</v>
-      </c>
-      <c r="G46" s="26">
-        <v>0</v>
-      </c>
-      <c r="H46" s="26">
-        <v>1</v>
-      </c>
-      <c r="I46" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="27">
-        <v>0</v>
-      </c>
-      <c r="C47" s="27">
-        <v>1</v>
-      </c>
-      <c r="D47" s="27">
-        <v>1</v>
-      </c>
-      <c r="E47" s="27">
-        <v>2</v>
-      </c>
-      <c r="F47" s="27">
-        <v>2</v>
-      </c>
-      <c r="G47" s="27">
-        <v>3</v>
-      </c>
-      <c r="H47" s="27">
-        <v>1</v>
-      </c>
-      <c r="I47" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="25">
-        <v>0</v>
-      </c>
-      <c r="C48" s="25">
-        <v>1</v>
-      </c>
-      <c r="D48" s="25">
-        <v>0</v>
-      </c>
-      <c r="E48" s="25">
-        <v>2</v>
-      </c>
-      <c r="F48" s="25">
-        <v>1</v>
-      </c>
-      <c r="G48" s="25">
-        <v>3</v>
-      </c>
-      <c r="H48" s="25">
-        <v>0</v>
-      </c>
-      <c r="I48" s="25">
-        <v>2</v>
+      <c r="H48" s="21">
+        <v>0</v>
+      </c>
+      <c r="I48" s="21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A21:I21"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="A44:I44"/>
     <mergeCell ref="A45:I45"/>
@@ -1910,17 +1925,6 @@
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="A36:I36"/>
     <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
